--- a/tests/testdata/standard/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testdata/standard/px-files/sitemaps/sitemap.xlsx
@@ -1,34 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomk79/mydoc_TomK/projs/pickles2/tomk79/px2-site-search/tests/testdata/standard/px-files/sitemaps/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B95FC1-23D8-3A40-B7A4-E48B3C371323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="sitemap" sheetId="1" r:id="rId1"/>
+    <sheet name="sitemap" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
-  <si>
-    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.3.1</t>
-  </si>
-  <si>
-    <t>[Paprika Framework for Pickles 2] Sitemap</t>
-  </si>
-  <si>
-    <t>Exported: 2024-02-12 11:28:04</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+  <si>
+    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.3.3</t>
+  </si>
+  <si>
+    <t>[px2-peraichize] Sitemap</t>
+  </si>
+  <si>
+    <t>Exported: 2025-05-14 21:06:04</t>
   </si>
   <si>
     <t>ページID</t>
@@ -85,6 +80,12 @@
     <t>削除フラグ</t>
   </si>
   <si>
+    <t>release_date</t>
+  </si>
+  <si>
+    <t>update_date</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -178,108 +179,95 @@
     <t>/showcase/</t>
   </si>
   <si>
+    <t>2025-02-07</t>
+  </si>
+  <si>
+    <t>2025-03-16</t>
+  </si>
+  <si>
     <t>PHPを拡張子で適用する</t>
   </si>
   <si>
     <t>/showcase/extphp/</t>
   </si>
   <si>
+    <t>除外されるべきコンテンツ</t>
+  </si>
+  <si>
+    <t>/ignored/</t>
+  </si>
+  <si>
+    <t>除外の範囲内</t>
+  </si>
+  <si>
+    <t>/ignored/this_is_ignored_too/ignored.html</t>
+  </si>
+  <si>
+    <t>完全一致で除外されたパス</t>
+  </si>
+  <si>
+    <t>/ignored/this_is_perfect_match_ignored/ignored.html</t>
+  </si>
+  <si>
+    <t>除外されないコンテンツ</t>
+  </si>
+  <si>
+    <t>/ignored/this_is_not_ignored/included.html</t>
+  </si>
+  <si>
     <t>EndOfData</t>
-  </si>
-  <si>
-    <t>除外されるべきコンテンツ</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ジョガイ </t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>/ignored/</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>除外の範囲内</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ジョガイ </t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t xml:space="preserve">ハンイナイ </t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>/ignored/this_is_ignored_too/ignored.html</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>除外されないコンテンツ</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ジョガイ </t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>/ignored/this_is_not_ignored/included.html</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>完全一致で除外されたパス</t>
-    <rPh sb="0" eb="4">
-      <t xml:space="preserve">カンゼンイッチ </t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>/ignored/this_is_perfect_match_ignored/ignored.html</t>
-    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="メイリオ"/>
-      <charset val="128"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
-      <charset val="128"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
-      <charset val="128"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="Ryo Gothic PlusN L"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="メイリオ"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -303,13 +291,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
+        <fgColor rgb="FFcccccc"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
+        <fgColor rgb="FFdddddd"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -342,7 +330,7 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFDDDDDD"/>
+        <color rgb="FFdddddd"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -354,10 +342,10 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFDDDDDD"/>
+        <color rgb="FFdddddd"/>
       </left>
       <right style="thin">
-        <color rgb="FFDDDDDD"/>
+        <color rgb="FFdddddd"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -372,7 +360,7 @@
         <color rgb="FF666666"/>
       </left>
       <right style="thin">
-        <color rgb="FFDDDDDD"/>
+        <color rgb="FFdddddd"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -386,37 +374,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+  <cellXfs count="11">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -706,32 +681,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomRight" activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="10" width="2" customWidth="1"/>
-    <col min="11" max="11" width="40" customWidth="1"/>
-    <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="14" max="14" width="3" customWidth="1"/>
-    <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="3" customWidth="1"/>
-    <col min="17" max="18" width="30" customWidth="1"/>
-    <col min="19" max="19" width="3" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="true" style="0"/>
+    <col min="2" max="2" width="3" customWidth="true" style="0"/>
+    <col min="3" max="3" width="3" customWidth="true" style="0"/>
+    <col min="4" max="4" width="3" customWidth="true" style="0"/>
+    <col min="5" max="5" width="3" customWidth="true" style="0"/>
+    <col min="6" max="6" width="20" customWidth="true" style="0"/>
+    <col min="7" max="7" width="2" customWidth="true" style="0"/>
+    <col min="8" max="8" width="2" customWidth="true" style="0"/>
+    <col min="9" max="9" width="2" customWidth="true" style="0"/>
+    <col min="10" max="10" width="2" customWidth="true" style="0"/>
+    <col min="11" max="11" width="40" customWidth="true" style="0"/>
+    <col min="12" max="12" width="20" customWidth="true" style="0"/>
+    <col min="14" max="14" width="3" customWidth="true" style="0"/>
+    <col min="15" max="15" width="9" customWidth="true" style="0"/>
+    <col min="16" max="16" width="3" customWidth="true" style="0"/>
+    <col min="17" max="17" width="30" customWidth="true" style="0"/>
+    <col min="18" max="18" width="30" customWidth="true" style="0"/>
+    <col min="19" max="19" width="3" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="10" customHeight="1">
+    <row r="1" spans="1:24" customHeight="1" ht="10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,28 +741,30 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
-    </row>
-    <row r="3" spans="1:22" ht="38">
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:24">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="3" t="s">
         <v>5</v>
       </c>
@@ -826,71 +813,83 @@
       <c r="V7" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="X8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="4"/>
       <c r="B9" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -901,7 +900,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -916,12 +915,14 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="4"/>
       <c r="B10" s="6"/>
       <c r="C10" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -931,7 +932,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -948,13 +949,15 @@
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="4"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -963,7 +966,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -978,13 +981,15 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="4"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -993,10 +998,10 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4">
@@ -1010,13 +1015,15 @@
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -1025,7 +1032,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -1040,12 +1047,14 @@
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -1055,7 +1064,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -1072,13 +1081,19 @@
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="4"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -1087,7 +1102,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -1104,12 +1119,14 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="4"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="11" t="s">
-        <v>55</v>
+      <c r="C16" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1118,8 +1135,8 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="12" t="s">
-        <v>56</v>
+      <c r="K16" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
@@ -1136,13 +1153,15 @@
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="4"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="11" t="s">
-        <v>57</v>
+      <c r="D17" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -1150,8 +1169,8 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="12" t="s">
-        <v>58</v>
+      <c r="K17" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
@@ -1166,13 +1185,15 @@
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="4"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="11" t="s">
-        <v>61</v>
+      <c r="D18" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -1180,8 +1201,8 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="12" t="s">
-        <v>62</v>
+      <c r="K18" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
@@ -1196,13 +1217,15 @@
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="4"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="11" t="s">
-        <v>59</v>
+      <c r="D19" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -1210,8 +1233,8 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="12" t="s">
-        <v>60</v>
+      <c r="K19" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
@@ -1226,10 +1249,12 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
-    </row>
-    <row r="22" spans="1:22" ht="5" customHeight="1">
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+    </row>
+    <row r="22" spans="1:24" customHeight="1" ht="5">
       <c r="A22" s="10" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -1252,14 +1277,25 @@
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
   </mergeCells>
-  <phoneticPr fontId="5"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>